--- a/public/data/db-source/institution.xlsx
+++ b/public/data/db-source/institution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7C79EC-2353-4844-84F6-236835939B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E015A671-E2D0-C641-BFBE-0A1817B35663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="500" windowWidth="25860" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="500" windowWidth="31600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="523">
   <si>
     <t>id</t>
   </si>
@@ -208,9 +208,6 @@
     <t>La section Tourisme (TOUR) établit les statistiques de l’hébergement touristique (HESTA) et de la parahôtellerie (PASTA), qui informent sur l’état et l’évolution de l’offre (capacité d’hébergement) et de la demande (arrivées, nuitées, provenance des hôtes) dans les hôtels, les terrains de camping, les hébergements collectifs et les logements de vacances exploités commercialement. Les données sur l’hôtellerie sont diffusées chaque mois et celles des autres catégories d’hébergements chaque trimestre.</t>
   </si>
   <si>
-    <t>+41 58 463 62 80</t>
-  </si>
-  <si>
     <t>ofs-mobi</t>
   </si>
   <si>
@@ -236,12 +233,6 @@
   </si>
   <si>
     <t>La section Démographie et migration (DEM) produit (en partie), diffuse et analyse les données de population. Elle exploite et analyse également les données de l’OFS sur des thèmes particuliers, tels que la démographie, l’évolution future de la population et des ménages, la famille et les ménages, l’intégration et les migrations, l’égalité entre femmes et hommes et les langues et les religions. Par ailleurs, la section DEM est chargée de la conception, de la réalisation, de l’analyse et de la diffusion de trois nouvelles enquêtes du système de recensement de la population : l’Enquête sur les familles et les générations (EFG), l’Enquête sur la langue, la religion et la culture (ELRC) et l’Enquête omnibus.</t>
-  </si>
-  <si>
-    <t>info.dem@bfs.admin.ch</t>
-  </si>
-  <si>
-    <t>+41 58 463 67 11</t>
   </si>
   <si>
     <t>ofs-pop</t>
@@ -254,9 +245,6 @@
 </t>
   </si>
   <si>
-    <t>info.gws@bfs.admin.ch</t>
-  </si>
-  <si>
     <t>ofs-sys-form</t>
   </si>
   <si>
@@ -291,12 +279,6 @@
   </si>
   <si>
     <t>La section Bâtiments et logements (GEWO) est responsable de la gestion du Registre fédéral des bâtiments et des logements (RegBL). Les activités de la section GEWO englobent en outre le service de nomenclature spatiale, qui assure la gestion du répertoire officiel des communes de la Suisse et la coordination d’autres nomenclatures spatiales (régions d’analyse, liste des Etats, etc.).</t>
-  </si>
-  <si>
-    <t>housing-stat@bfs.admin.ch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+41 800 866 600 </t>
   </si>
   <si>
     <t>ofs-reg-ent</t>
@@ -399,19 +381,10 @@
     <t>Le département des finances, des ressources humaines et des affaires extérieures assure le financement des prestations à la population et le bon fonctionnement de l'ensemble de l'administration.</t>
   </si>
   <si>
-    <t>022 327 98 00</t>
-  </si>
-  <si>
     <t>ocstat</t>
   </si>
   <si>
     <t>OCSTAT : Office Cantonal de la Statistique (GE)</t>
-  </si>
-  <si>
-    <t>statistique@etat.ge.ch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">022 388 75 00  </t>
   </si>
   <si>
     <t>ne-etat</t>
@@ -434,12 +407,6 @@
 Le DFS compte un peu plus de 312 postes de travail, occupés par près de 375 collaboratrices et collaborateurs.</t>
   </si>
   <si>
-    <t>Secretariat.DFS@ne.ch</t>
-  </si>
-  <si>
-    <t>032 889 64 00</t>
-  </si>
-  <si>
     <t>ne-stat</t>
   </si>
   <si>
@@ -449,12 +416,6 @@
     <t>Service de statistique du canton de Neuchâtel
 Rue du Château 19
 2000 Neuchâtel</t>
-  </si>
-  <si>
-    <t>stat@ne.ch</t>
-  </si>
-  <si>
-    <t>032 889 68 22</t>
   </si>
   <si>
     <t>vd-ojv</t>
@@ -523,9 +484,6 @@
     <t>Le Département de l'économie, de l'innovation, de l'emploi et du patrimoine (DEIEP) a de multiples missions. Il est tout d'abord en contact étroit avec les acteurs économiques du canton. En ce sens, il coordonne notamment la politique publique des investissements liés au développement et à la création des entreprises mais aussi des startup. Proche de l'UNIL et de l'EPFL, il est un moteur, avec ces dernières, de l'innovation. Il s’efforce de valoriser le savoir-faire des entreprises vaudoises.  Ses prestations sont également dédiées aux personnes actives et en recherche d'emploi, ainsi qu’à la population pour tout ce qui concerne l’état civil.</t>
   </si>
   <si>
-    <t>021 316 60 19</t>
-  </si>
-  <si>
     <t>vd-djes</t>
   </si>
   <si>
@@ -635,12 +593,6 @@
   </si>
   <si>
     <t>La Direction générale de l’emploi et du marché du travail (DGEM) a pour mission de maintenir l’équilibre du marché du travail en ajustant les mesures de lutte contre le chômage, de lutte contre le travail au noir, de protection des travailleurs et d’accompagnement à la libre circulation, aux besoins du marché du travail vaudois.</t>
-  </si>
-  <si>
-    <t>info.dgem@vd.ch</t>
-  </si>
-  <si>
-    <t>021 316 61 04</t>
   </si>
   <si>
     <t>vd-orp</t>
@@ -734,18 +686,9 @@
     <t>doc_ids</t>
   </si>
   <si>
-    <t>population, societe, transport</t>
-  </si>
-  <si>
-    <t>021 692 11 11</t>
-  </si>
-  <si>
     <t>L’Office cantonal de la statistique assure l’information statistique en mettant à disposition des autorités, du public et de la collectivité dans son ensemble des informations statistiques pertinentes, fiables et cohérentes.</t>
   </si>
   <si>
-    <t>test@email.ch</t>
-  </si>
-  <si>
     <t>Le dispositif de l’AVASAD constitue la plus grande structure parapublique et le principal acteur de l’aide et des soins à domicile et de la santé communautaire dans le canton de Vaud. Le Canton et les Communes pilotent ce dispositif sur la base d’une politique concertée et d’une vision partagée du développement du maintien à domicile.</t>
   </si>
   <si>
@@ -755,16 +698,922 @@
     <t>end_date</t>
   </si>
   <si>
-    <t>2010/10</t>
-  </si>
-  <si>
-    <t>2021/05</t>
-  </si>
-  <si>
     <t>pdf-wiki</t>
   </si>
   <si>
     <t>pop-com-1</t>
+  </si>
+  <si>
+    <t>accueil@suisse.vd.ch</t>
+  </si>
+  <si>
+    <t>+41 71 981 33 05</t>
+  </si>
+  <si>
+    <t>contact@poste.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 79 235 74 51</t>
+  </si>
+  <si>
+    <t>contact@suisseaf.admin.ch</t>
+  </si>
+  <si>
+    <t>+41 71 607 31 95</t>
+  </si>
+  <si>
+    <t>secretariat@dfi.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 77 860 70 18</t>
+  </si>
+  <si>
+    <t>direction@dfjp.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 78 567 71 52</t>
+  </si>
+  <si>
+    <t>secretariat@defr.ne.ch</t>
+  </si>
+  <si>
+    <t>+41 26 512 19 73</t>
+  </si>
+  <si>
+    <t>service@dff.admin.ch</t>
+  </si>
+  <si>
+    <t>+41 26 340 52 76</t>
+  </si>
+  <si>
+    <t>contact@sem.vd.ch</t>
+  </si>
+  <si>
+    <t>+41 22 925 42 50</t>
+  </si>
+  <si>
+    <t>contact@seco.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 26 943 99 98</t>
+  </si>
+  <si>
+    <t>direction@meteosuisse.zh.ch</t>
+  </si>
+  <si>
+    <t>+41 78 398 02 59</t>
+  </si>
+  <si>
+    <t>accueil@ofdf.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 21 559 20 85</t>
+  </si>
+  <si>
+    <t>info@ofs.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 76 264 81 69</t>
+  </si>
+  <si>
+    <t>communication@ofsdivinter.ne.ch</t>
+  </si>
+  <si>
+    <t>+41 41 733 16 38</t>
+  </si>
+  <si>
+    <t>service@ofsdivpop.admin.ch</t>
+  </si>
+  <si>
+    <t>+41 26 493 83 98</t>
+  </si>
+  <si>
+    <t>accueil@ofsdivterr.be.ch</t>
+  </si>
+  <si>
+    <t>+41 76 949 37 02</t>
+  </si>
+  <si>
+    <t>contact@ofsdiveco.admin.ch</t>
+  </si>
+  <si>
+    <t>+41 71 276 52 81</t>
+  </si>
+  <si>
+    <t>secretariat@ofsdivsante.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 26 277 24 09</t>
+  </si>
+  <si>
+    <t>service@ofstourisme.ch</t>
+  </si>
+  <si>
+    <t>+41 27 843 84 99</t>
+  </si>
+  <si>
+    <t>direction@ofsmobi.admin.ch</t>
+  </si>
+  <si>
+    <t>+41 27 840 90 13</t>
+  </si>
+  <si>
+    <t>communication@ofsgeo.be.ch</t>
+  </si>
+  <si>
+    <t>+41 76 222 57 22</t>
+  </si>
+  <si>
+    <t>accueil@ofsdemo.admin.ch</t>
+  </si>
+  <si>
+    <t>+41 26 766 66 18</t>
+  </si>
+  <si>
+    <t>accueil@ofspop.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 61 789 20 00</t>
+  </si>
+  <si>
+    <t>communication@ofssysform.zh.ch</t>
+  </si>
+  <si>
+    <t>+41 44 656 19 12</t>
+  </si>
+  <si>
+    <t>contact@ofsproform.vd.ch</t>
+  </si>
+  <si>
+    <t>+41 76 255 55 30</t>
+  </si>
+  <si>
+    <t>secretariat@ofstravail.admin.ch</t>
+  </si>
+  <si>
+    <t>+41 78 859 88 52</t>
+  </si>
+  <si>
+    <t>direction@ofsbatiment.zh.ch</t>
+  </si>
+  <si>
+    <t>+41 27 977 09 74</t>
+  </si>
+  <si>
+    <t>direction@ofsregent.ch</t>
+  </si>
+  <si>
+    <t>+41 31 376 12 06</t>
+  </si>
+  <si>
+    <t>info@ofssalaire.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 21 849 20 68</t>
+  </si>
+  <si>
+    <t>direction@ofsstructeco.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 61 543 49 63</t>
+  </si>
+  <si>
+    <t>communication@ofsconjonct.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 77 976 41 41</t>
+  </si>
+  <si>
+    <t>accueil@ofsservicesante.zh.ch</t>
+  </si>
+  <si>
+    <t>+41 79 204 22 23</t>
+  </si>
+  <si>
+    <t>direction@ofscrim.ch</t>
+  </si>
+  <si>
+    <t>+41 44 448 31 99</t>
+  </si>
+  <si>
+    <t>direction@epfz.zh.ch</t>
+  </si>
+  <si>
+    <t>+41 78 535 84 81</t>
+  </si>
+  <si>
+    <t>accueil@kof.zh.ch</t>
+  </si>
+  <si>
+    <t>+41 32 237 81 00</t>
+  </si>
+  <si>
+    <t>accueil@vdetat.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 71 563 45 27</t>
+  </si>
+  <si>
+    <t>contact@geetat.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 71 526 42 11</t>
+  </si>
+  <si>
+    <t>contact@gedf.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 61 579 11 66</t>
+  </si>
+  <si>
+    <t>direction@ocstat.ch</t>
+  </si>
+  <si>
+    <t>+41 77 289 13 68</t>
+  </si>
+  <si>
+    <t>service@neetat.zh.ch</t>
+  </si>
+  <si>
+    <t>+41 32 864 11 93</t>
+  </si>
+  <si>
+    <t>communication@nedfs.vd.ch</t>
+  </si>
+  <si>
+    <t>+41 31 318 48 55</t>
+  </si>
+  <si>
+    <t>service@nestat.vd.ch</t>
+  </si>
+  <si>
+    <t>+41 71 663 90 46</t>
+  </si>
+  <si>
+    <t>secretariat@vdojv.ne.ch</t>
+  </si>
+  <si>
+    <t>+41 44 308 35 68</t>
+  </si>
+  <si>
+    <t>accueil@dfa.ch</t>
+  </si>
+  <si>
+    <t>+41 26 619 00 32</t>
+  </si>
+  <si>
+    <t>accueil@dcirh.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 32 912 18 02</t>
+  </si>
+  <si>
+    <t>contact@dits.ne.ch</t>
+  </si>
+  <si>
+    <t>+41 61 942 22 33</t>
+  </si>
+  <si>
+    <t>service@dsas.vd.ch</t>
+  </si>
+  <si>
+    <t>+41 44 499 18 30</t>
+  </si>
+  <si>
+    <t>service@vddef.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 79 796 62 35</t>
+  </si>
+  <si>
+    <t>service@vddeiep.vd.ch</t>
+  </si>
+  <si>
+    <t>+41 32 250 25 59</t>
+  </si>
+  <si>
+    <t>accueil@vddjes.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 27 212 29 89</t>
+  </si>
+  <si>
+    <t>service@vddge.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 71 629 90 42</t>
+  </si>
+  <si>
+    <t>direction@vddgegeod.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 31 805 65 53</t>
+  </si>
+  <si>
+    <t>secretariat@vddgeo.be.ch</t>
+  </si>
+  <si>
+    <t>+41 41 453 32 19</t>
+  </si>
+  <si>
+    <t>direction@dgnsi.admin.ch</t>
+  </si>
+  <si>
+    <t>+41 77 431 62 79</t>
+  </si>
+  <si>
+    <t>secretariat@dgtl.vd.ch</t>
+  </si>
+  <si>
+    <t>+41 32 339 97 12</t>
+  </si>
+  <si>
+    <t>info@dac.vd.ch</t>
+  </si>
+  <si>
+    <t>+41 79 213 56 83</t>
+  </si>
+  <si>
+    <t>communication@dcg.ne.ch</t>
+  </si>
+  <si>
+    <t>+41 27 749 76 61</t>
+  </si>
+  <si>
+    <t>secretariat@dgcs.be.ch</t>
+  </si>
+  <si>
+    <t>+41 26 861 66 23</t>
+  </si>
+  <si>
+    <t>secretariat@vddgf.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 27 543 24 99</t>
+  </si>
+  <si>
+    <t>communication@dgaic.ne.ch</t>
+  </si>
+  <si>
+    <t>+41 61 727 07 18</t>
+  </si>
+  <si>
+    <t>contact@vddgem.ch</t>
+  </si>
+  <si>
+    <t>+41 77 818 35 83</t>
+  </si>
+  <si>
+    <t>accueil@vdorp.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 79 261 29 13</t>
+  </si>
+  <si>
+    <t>direction@vdsan.ge.ch</t>
+  </si>
+  <si>
+    <t>+41 32 557 25 65</t>
+  </si>
+  <si>
+    <t>accueil@vdaci.zh.ch</t>
+  </si>
+  <si>
+    <t>+41 79 973 85 54</t>
+  </si>
+  <si>
+    <t>secretariat@dacdp.ne.ch</t>
+  </si>
+  <si>
+    <t>+41 71 959 53 45</t>
+  </si>
+  <si>
+    <t>service@dirfincom.fr.ch</t>
+  </si>
+  <si>
+    <t>+41 44 916 33 19</t>
+  </si>
+  <si>
+    <t>accueil@camac.admin.ch</t>
+  </si>
+  <si>
+    <t>+41 44 834 31 79</t>
+  </si>
+  <si>
+    <t>service@avasad.admin.ch</t>
+  </si>
+  <si>
+    <t>+41 32 220 32 06</t>
+  </si>
+  <si>
+    <t>info@profa.be.ch</t>
+  </si>
+  <si>
+    <t>+41 22 491 12 40</t>
+  </si>
+  <si>
+    <t>service@unil.ch</t>
+  </si>
+  <si>
+    <t>+41 21 566 32 38</t>
+  </si>
+  <si>
+    <t>2009/09/02</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>1983/09/05</t>
+  </si>
+  <si>
+    <t>1990/11/15</t>
+  </si>
+  <si>
+    <t>1976/09</t>
+  </si>
+  <si>
+    <t>2018/08</t>
+  </si>
+  <si>
+    <t>2014/10/17</t>
+  </si>
+  <si>
+    <t>1991/03/06</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>1981/10</t>
+  </si>
+  <si>
+    <t>1992/09/01</t>
+  </si>
+  <si>
+    <t>1990/06/12</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024/11/18</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>1970/07</t>
+  </si>
+  <si>
+    <t>2000/01/10</t>
+  </si>
+  <si>
+    <t>1989/12/05</t>
+  </si>
+  <si>
+    <t>1970/11</t>
+  </si>
+  <si>
+    <t>1973/12</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2006/04/22</t>
+  </si>
+  <si>
+    <t>2022/06</t>
+  </si>
+  <si>
+    <t>1996/03</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>2015/08/19</t>
+  </si>
+  <si>
+    <t>1982/01/15</t>
+  </si>
+  <si>
+    <t>2013/03/02</t>
+  </si>
+  <si>
+    <t>2011/03/11</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1979/08</t>
+  </si>
+  <si>
+    <t>1992/06</t>
+  </si>
+  <si>
+    <t>2023/09</t>
+  </si>
+  <si>
+    <t>1988/06/12</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>2009/12</t>
+  </si>
+  <si>
+    <t>2024/02/24</t>
+  </si>
+  <si>
+    <t>1993/09</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>2004/06/06</t>
+  </si>
+  <si>
+    <t>2005/10</t>
+  </si>
+  <si>
+    <t>2019/06</t>
+  </si>
+  <si>
+    <t>2021/12</t>
+  </si>
+  <si>
+    <t>1982/12/12</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2007/11</t>
+  </si>
+  <si>
+    <t>2014/02</t>
+  </si>
+  <si>
+    <t>2006/12/13</t>
+  </si>
+  <si>
+    <t>2019/09/16</t>
+  </si>
+  <si>
+    <t>1985/11</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1991/06/09</t>
+  </si>
+  <si>
+    <t>2008/02/12</t>
+  </si>
+  <si>
+    <t>1975/01/08</t>
+  </si>
+  <si>
+    <t>2003/01</t>
+  </si>
+  <si>
+    <t>1982/04</t>
+  </si>
+  <si>
+    <t>1993/08/08</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>2013/12/12</t>
+  </si>
+  <si>
+    <t>2017/02/27</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>2001/06</t>
+  </si>
+  <si>
+    <t>2017/10/15</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>2004/05</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1990/02/24</t>
+  </si>
+  <si>
+    <t>2006/10/20</t>
+  </si>
+  <si>
+    <t>2008/06</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2020/08/10</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2017/02/21</t>
+  </si>
+  <si>
+    <t>1991/10</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2000/03</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2023/08</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>2011/07</t>
+  </si>
+  <si>
+    <t>2016/01</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2012/09</t>
+  </si>
+  <si>
+    <t>2016/06/13</t>
+  </si>
+  <si>
+    <t>elimination, foret, climatologie, images_aeriennes_2, transport</t>
+  </si>
+  <si>
+    <t>anonymous_data, edifices, armee</t>
+  </si>
+  <si>
+    <t>limites_pol_admin</t>
+  </si>
+  <si>
+    <t>culture, pseudonymous_data, population, agriculture, images_aeriennes_2, images_aeriennes</t>
+  </si>
+  <si>
+    <t>climatologie, pseudonymous_data, systemes_reference, cadastre_foncier, hydrographie</t>
+  </si>
+  <si>
+    <t>communication, armee, infrastructures, images_aeriennes</t>
+  </si>
+  <si>
+    <t>infrastructures, theme_iso, protection_env_nature</t>
+  </si>
+  <si>
+    <t>protection_env_nature, personal_data, couverture_sol</t>
+  </si>
+  <si>
+    <t>activites_economiques</t>
+  </si>
+  <si>
+    <t>developpement_territorial, communication</t>
+  </si>
+  <si>
+    <t>sante, protection_env_nature, images_aeriennes, anonymous_data, dangers_naturels, approvisionnement</t>
+  </si>
+  <si>
+    <t>personal_data, images_aeriennes_2</t>
+  </si>
+  <si>
+    <t>population, dangers_naturels, elimination</t>
+  </si>
+  <si>
+    <t>theme_iso, anonymous_data, edifices, altimetrie, cartes_reference, geologie</t>
+  </si>
+  <si>
+    <t>personal_data</t>
+  </si>
+  <si>
+    <t>dangers_naturels</t>
+  </si>
+  <si>
+    <t>cadastre_foncier, images_aeriennes_2, developpement_territorial, couverture_sol</t>
+  </si>
+  <si>
+    <t>armee, dangers_naturels, approvisionnement, images_aeriennes_1, ouvrages, flore</t>
+  </si>
+  <si>
+    <t>infrastructures, localisation, ouvrages, protection_env_nature, communication</t>
+  </si>
+  <si>
+    <t>limites_pol_admin, communication, agriculture</t>
+  </si>
+  <si>
+    <t>images_aeriennes_1, edifices, population</t>
+  </si>
+  <si>
+    <t>population, images_aeriennes, anonymous_data, geologie</t>
+  </si>
+  <si>
+    <t>faune, infrastructures, ouvrages</t>
+  </si>
+  <si>
+    <t>limites_pol_admin, images_aeriennes_1, cartes_reference</t>
+  </si>
+  <si>
+    <t>systemes_reference, images_aeriennes_2</t>
+  </si>
+  <si>
+    <t>faune, armee, transport, culture, protection_env_nature</t>
+  </si>
+  <si>
+    <t>dangers_naturels, infrastructures, culture, cartes_reference, approvisionnement</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>couverture_sol, societe, pseudonymous_data</t>
+  </si>
+  <si>
+    <t>sols, geologie, activites_economiques, societe, population</t>
+  </si>
+  <si>
+    <t>images_aeriennes, activites_economiques, atmosphere, pseudonymous_data</t>
+  </si>
+  <si>
+    <t>pseudonymous_data, limites_pol_admin, data_protection, dangers_naturels</t>
+  </si>
+  <si>
+    <t>population, culture</t>
+  </si>
+  <si>
+    <t>securite, population, images_aeriennes_2, pseudonymous_data</t>
+  </si>
+  <si>
+    <t>agriculture, edifices, theme_iso, cadastre_foncier</t>
+  </si>
+  <si>
+    <t>culture, images_aeriennes</t>
+  </si>
+  <si>
+    <t>atmosphere, localisation, elimination, armee, sols</t>
+  </si>
+  <si>
+    <t>hydrographie, limites_pol_admin, altimetrie, images_aeriennes_2, developpement_territorial, atmosphere</t>
+  </si>
+  <si>
+    <t>data_protection, geologie, images_aeriennes_1, limites_pol_admin, elimination, faune</t>
+  </si>
+  <si>
+    <t>developpement_territorial, population, sante, images_aeriennes_2, couverture_sol</t>
+  </si>
+  <si>
+    <t>altimetrie, images_aeriennes_1, pseudonymous_data, images_aeriennes_2, limites_pol_admin</t>
+  </si>
+  <si>
+    <t>cartes_reference, altimetrie, transport, pseudonymous_data</t>
+  </si>
+  <si>
+    <t>edifices, sensible_data, ouvrages, images_aeriennes_1</t>
+  </si>
+  <si>
+    <t>flore, societe, securite, couverture_sol, images_aeriennes, faune</t>
+  </si>
+  <si>
+    <t>securite, edifices, atmosphere</t>
+  </si>
+  <si>
+    <t>faune, communication</t>
+  </si>
+  <si>
+    <t>images_aeriennes_2, localisation, transport, cadastre_foncier</t>
+  </si>
+  <si>
+    <t>cartes_reference, cadastre_foncier, edifices, population, protection_env_nature, communication</t>
+  </si>
+  <si>
+    <t>transport, agriculture, dangers_naturels, faune</t>
+  </si>
+  <si>
+    <t>cartes_reference, systemes_reference</t>
+  </si>
+  <si>
+    <t>edifices, systemes_reference, sante, dangers_naturels, elimination</t>
+  </si>
+  <si>
+    <t>limites_pol_admin, atmosphere, altimetrie, ouvrages, agriculture, images_aeriennes_1</t>
+  </si>
+  <si>
+    <t>sols, flore, foret, approvisionnement, population, edifices</t>
+  </si>
+  <si>
+    <t>theme_iso</t>
+  </si>
+  <si>
+    <t>agriculture, geologie, data_protection, edifices, developpement_territorial, communication</t>
+  </si>
+  <si>
+    <t>communication, hydrographie, systemes_reference, transport</t>
+  </si>
+  <si>
+    <t>population, systemes_reference, communication, theme_iso, developpement_territorial, atmosphere</t>
+  </si>
+  <si>
+    <t>anonymous_data, edifices, ouvrages, cartes_reference, infrastructures, atmosphere</t>
+  </si>
+  <si>
+    <t>ouvrages</t>
+  </si>
+  <si>
+    <t>communication, flore, atmosphere</t>
+  </si>
+  <si>
+    <t>geologie, developpement_territorial</t>
+  </si>
+  <si>
+    <t>personal_data, elimination, altimetrie, activites_economiques</t>
+  </si>
+  <si>
+    <t>statpop-info</t>
+  </si>
+  <si>
+    <t>pdf_online, bevnat-variable</t>
+  </si>
+  <si>
+    <t>pdf-wiki, tourisme-exemple</t>
+  </si>
+  <si>
+    <t>bevnat-variable</t>
+  </si>
+  <si>
+    <t>statpop-info, tourisme-exemple</t>
+  </si>
+  <si>
+    <t>pop-com-1, pdf_online</t>
+  </si>
+  <si>
+    <t>tourisme-exemple</t>
+  </si>
+  <si>
+    <t>bevnat-info, tourisme-exemple</t>
+  </si>
+  <si>
+    <t>pdf_online</t>
+  </si>
+  <si>
+    <t>pdf-wiki, pdf_online</t>
+  </si>
+  <si>
+    <t>bevnat-info</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +2003,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1190,16 +2039,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="H1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="I1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="J1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -1213,8 +2062,17 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
-        <v>238</v>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1230,6 +2088,21 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H3" t="s">
+        <v>359</v>
+      </c>
+      <c r="I3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1244,6 +2117,21 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I4" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1258,11 +2146,20 @@
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
-        <v>2013</v>
-      </c>
-      <c r="H5">
-        <v>2023</v>
+      <c r="E5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H5" t="s">
+        <v>363</v>
+      </c>
+      <c r="I5" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1278,6 +2175,21 @@
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" t="s">
+        <v>454</v>
+      </c>
+      <c r="J6" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1292,6 +2204,24 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" t="s">
+        <v>366</v>
+      </c>
+      <c r="I7" t="s">
+        <v>455</v>
+      </c>
+      <c r="J7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1306,8 +2236,23 @@
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" t="s">
+        <v>232</v>
+      </c>
       <c r="G8" t="s">
-        <v>236</v>
+        <v>367</v>
+      </c>
+      <c r="H8" t="s">
+        <v>368</v>
+      </c>
+      <c r="I8" t="s">
+        <v>456</v>
+      </c>
+      <c r="J8" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1323,6 +2268,21 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" t="s">
+        <v>370</v>
+      </c>
+      <c r="I9" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1337,8 +2297,17 @@
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
-        <v>237</v>
+      <c r="E10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" t="s">
+        <v>371</v>
+      </c>
+      <c r="I10" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1354,6 +2323,21 @@
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" t="s">
+        <v>373</v>
+      </c>
+      <c r="I11" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1368,6 +2352,24 @@
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" t="s">
+        <v>374</v>
+      </c>
+      <c r="H12" t="s">
+        <v>375</v>
+      </c>
+      <c r="I12" t="s">
+        <v>460</v>
+      </c>
+      <c r="J12" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1382,6 +2384,21 @@
       <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="E13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" t="s">
+        <v>376</v>
+      </c>
+      <c r="H13" t="s">
+        <v>377</v>
+      </c>
+      <c r="I13" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1396,6 +2413,21 @@
       <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" t="s">
+        <v>378</v>
+      </c>
+      <c r="I14" t="s">
+        <v>462</v>
+      </c>
+      <c r="J14" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1410,6 +2442,15 @@
       <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="E15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1424,6 +2465,21 @@
       <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="E16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" t="s">
+        <v>381</v>
+      </c>
+      <c r="I16" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1438,6 +2494,18 @@
       <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" t="s">
+        <v>382</v>
+      </c>
+      <c r="H17" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1452,6 +2520,24 @@
       <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="E18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H18" t="s">
+        <v>375</v>
+      </c>
+      <c r="I18" t="s">
+        <v>464</v>
+      </c>
+      <c r="J18" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1466,779 +2552,1439 @@
       <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="E19" t="s">
+        <v>253</v>
+      </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>254</v>
+      </c>
+      <c r="G19" t="s">
+        <v>385</v>
+      </c>
+      <c r="H19" t="s">
+        <v>386</v>
+      </c>
+      <c r="I19" t="s">
+        <v>465</v>
+      </c>
+      <c r="J19" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
+      <c r="E20" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" t="s">
+        <v>387</v>
+      </c>
+      <c r="H20" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
       <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
+      <c r="E21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21" t="s">
+        <v>389</v>
+      </c>
+      <c r="I21" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>260</v>
+      </c>
+      <c r="G22" t="s">
+        <v>390</v>
+      </c>
+      <c r="I22" t="s">
+        <v>467</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>261</v>
+      </c>
+      <c r="F23" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" t="s">
+        <v>391</v>
+      </c>
+      <c r="H23" t="s">
+        <v>392</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
-      </c>
-      <c r="J23" t="s">
-        <v>239</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" t="s">
+        <v>393</v>
+      </c>
+      <c r="H24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I24" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" t="s">
+        <v>394</v>
+      </c>
+      <c r="I25" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G26" t="s">
+        <v>395</v>
+      </c>
+      <c r="I26" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>270</v>
+      </c>
+      <c r="G27" t="s">
+        <v>396</v>
+      </c>
+      <c r="I27" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" t="s">
+        <v>397</v>
+      </c>
+      <c r="H28" t="s">
+        <v>398</v>
+      </c>
+      <c r="I28" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H29" t="s">
+        <v>400</v>
+      </c>
+      <c r="I29" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" t="s">
+        <v>395</v>
+      </c>
+      <c r="I30" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>401</v>
+      </c>
+      <c r="H31" t="s">
+        <v>402</v>
+      </c>
+      <c r="I31" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="H32" t="s">
+        <v>403</v>
+      </c>
+      <c r="I32" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H33" t="s">
+        <v>405</v>
+      </c>
+      <c r="I33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>406</v>
+      </c>
+      <c r="H34" t="s">
+        <v>374</v>
+      </c>
+      <c r="I34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F35" t="s">
+        <v>286</v>
+      </c>
+      <c r="I35" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>108</v>
-      </c>
-      <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>114</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>287</v>
+      </c>
+      <c r="F36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" t="s">
+        <v>395</v>
+      </c>
+      <c r="I36" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>407</v>
+      </c>
+      <c r="H37" t="s">
+        <v>408</v>
+      </c>
+      <c r="J37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>291</v>
+      </c>
+      <c r="F38" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" t="s">
+        <v>409</v>
+      </c>
+      <c r="H38" t="s">
+        <v>368</v>
+      </c>
+      <c r="I38" t="s">
+        <v>481</v>
+      </c>
+      <c r="J38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F39" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" t="s">
+        <v>410</v>
+      </c>
+      <c r="H39" t="s">
+        <v>411</v>
+      </c>
+      <c r="I39" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>128</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>412</v>
+      </c>
+      <c r="H40" t="s">
+        <v>413</v>
+      </c>
+      <c r="I40" t="s">
+        <v>483</v>
+      </c>
+      <c r="J40" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>414</v>
+      </c>
+      <c r="H41" t="s">
+        <v>415</v>
+      </c>
+      <c r="I41" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" t="s">
+        <v>300</v>
+      </c>
+      <c r="G42" t="s">
+        <v>416</v>
+      </c>
+      <c r="H42" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="E43" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" t="s">
+        <v>302</v>
+      </c>
+      <c r="G43" t="s">
+        <v>363</v>
+      </c>
+      <c r="I43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>131</v>
       </c>
-      <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E44" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" t="s">
+        <v>418</v>
+      </c>
+      <c r="I44" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>134</v>
       </c>
-      <c r="F41" t="s">
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="D45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E45" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" t="s">
+        <v>396</v>
+      </c>
+      <c r="I45" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" t="s">
+        <v>307</v>
+      </c>
+      <c r="F46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" t="s">
+        <v>419</v>
+      </c>
+      <c r="H46" t="s">
+        <v>420</v>
+      </c>
+      <c r="I46" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" t="s">
+        <v>309</v>
+      </c>
+      <c r="F47" t="s">
+        <v>310</v>
+      </c>
+      <c r="G47" t="s">
+        <v>421</v>
+      </c>
+      <c r="I47" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>311</v>
+      </c>
+      <c r="F48" t="s">
+        <v>312</v>
+      </c>
+      <c r="G48" t="s">
+        <v>422</v>
+      </c>
+      <c r="H48" t="s">
+        <v>423</v>
+      </c>
+      <c r="I48" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>313</v>
+      </c>
+      <c r="F49" t="s">
+        <v>314</v>
+      </c>
+      <c r="G49" t="s">
+        <v>424</v>
+      </c>
+      <c r="H49" t="s">
+        <v>425</v>
+      </c>
+      <c r="I49" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" t="s">
+        <v>315</v>
+      </c>
+      <c r="F50" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50" t="s">
+        <v>358</v>
+      </c>
+      <c r="I50" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
+        <v>317</v>
+      </c>
+      <c r="F51" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" t="s">
+        <v>426</v>
+      </c>
+      <c r="I51" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" t="s">
+        <v>319</v>
+      </c>
+      <c r="F52" t="s">
+        <v>320</v>
+      </c>
+      <c r="G52" t="s">
+        <v>427</v>
+      </c>
+      <c r="H52" t="s">
+        <v>428</v>
+      </c>
+      <c r="I52" t="s">
+        <v>494</v>
+      </c>
+      <c r="J52" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>321</v>
+      </c>
+      <c r="F53" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" t="s">
+        <v>429</v>
+      </c>
+      <c r="H53" t="s">
+        <v>413</v>
+      </c>
+      <c r="I53" t="s">
+        <v>495</v>
+      </c>
+      <c r="J53" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" t="s">
+        <v>323</v>
+      </c>
+      <c r="F54" t="s">
+        <v>324</v>
+      </c>
+      <c r="G54" t="s">
+        <v>430</v>
+      </c>
+      <c r="I54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>325</v>
+      </c>
+      <c r="F55" t="s">
+        <v>326</v>
+      </c>
+      <c r="G55" t="s">
+        <v>431</v>
+      </c>
+      <c r="I55" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" t="s">
+        <v>327</v>
+      </c>
+      <c r="F56" t="s">
+        <v>328</v>
+      </c>
+      <c r="G56" t="s">
+        <v>432</v>
+      </c>
+      <c r="H56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I56" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" t="s">
+        <v>329</v>
+      </c>
+      <c r="F57" t="s">
+        <v>330</v>
+      </c>
+      <c r="G57" t="s">
+        <v>433</v>
+      </c>
+      <c r="I57" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" t="s">
+        <v>331</v>
+      </c>
+      <c r="F58" t="s">
+        <v>332</v>
+      </c>
+      <c r="G58" t="s">
+        <v>434</v>
+      </c>
+      <c r="H58" t="s">
+        <v>435</v>
+      </c>
+      <c r="I58" t="s">
+        <v>500</v>
+      </c>
+      <c r="J58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
         <v>131</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" t="s">
+        <v>333</v>
+      </c>
+      <c r="F59" t="s">
+        <v>334</v>
+      </c>
+      <c r="G59" t="s">
+        <v>436</v>
+      </c>
+      <c r="I59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F60" t="s">
+        <v>336</v>
+      </c>
+      <c r="G60" t="s">
+        <v>427</v>
+      </c>
+      <c r="H60" t="s">
+        <v>437</v>
+      </c>
+      <c r="I60" t="s">
+        <v>502</v>
+      </c>
+      <c r="J60" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="C61" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" t="s">
+        <v>337</v>
+      </c>
+      <c r="F61" t="s">
+        <v>338</v>
+      </c>
+      <c r="G61" t="s">
+        <v>438</v>
+      </c>
+      <c r="I61" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" t="s">
+        <v>339</v>
+      </c>
+      <c r="F62" t="s">
+        <v>340</v>
+      </c>
+      <c r="G62" t="s">
+        <v>439</v>
+      </c>
+      <c r="H62" t="s">
+        <v>440</v>
+      </c>
+      <c r="I62" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" t="s">
+        <v>341</v>
+      </c>
+      <c r="F63" t="s">
+        <v>342</v>
+      </c>
+      <c r="G63" t="s">
+        <v>441</v>
+      </c>
+      <c r="I63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" t="s">
+        <v>343</v>
+      </c>
+      <c r="F64" t="s">
+        <v>344</v>
+      </c>
+      <c r="G64" t="s">
+        <v>442</v>
+      </c>
+      <c r="H64" t="s">
+        <v>443</v>
+      </c>
+      <c r="I64" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" t="s">
+        <v>345</v>
+      </c>
+      <c r="F65" t="s">
+        <v>346</v>
+      </c>
+      <c r="J65" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>347</v>
+      </c>
+      <c r="F66" t="s">
+        <v>348</v>
+      </c>
+      <c r="G66" t="s">
+        <v>444</v>
+      </c>
+      <c r="H66" t="s">
+        <v>435</v>
+      </c>
+      <c r="I66" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>178</v>
-      </c>
-      <c r="B55" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" t="s">
-        <v>178</v>
-      </c>
-      <c r="C56" t="s">
-        <v>182</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" t="s">
-        <v>185</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>196</v>
-      </c>
-      <c r="B61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" t="s">
-        <v>197</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E61" t="s">
-        <v>199</v>
-      </c>
-      <c r="F61" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="C67" t="s">
         <v>201</v>
       </c>
-      <c r="B62" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D67" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E67" t="s">
+        <v>349</v>
+      </c>
+      <c r="F67" t="s">
+        <v>350</v>
+      </c>
+      <c r="G67" t="s">
+        <v>445</v>
+      </c>
+      <c r="I67" t="s">
+        <v>508</v>
+      </c>
+      <c r="J67" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" t="s">
         <v>204</v>
       </c>
-      <c r="B63" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" t="s">
+        <v>352</v>
+      </c>
+      <c r="G68" t="s">
+        <v>446</v>
+      </c>
+      <c r="H68" t="s">
+        <v>447</v>
+      </c>
+      <c r="I68" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="D69" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="E69" t="s">
+        <v>353</v>
+      </c>
+      <c r="F69" t="s">
+        <v>354</v>
+      </c>
+      <c r="G69" t="s">
+        <v>448</v>
+      </c>
+      <c r="I69" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>208</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="B70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="D70" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C65" t="s">
-        <v>211</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E65" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>213</v>
-      </c>
-      <c r="B66" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>216</v>
-      </c>
-      <c r="B67" t="s">
-        <v>181</v>
-      </c>
-      <c r="C67" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>219</v>
-      </c>
-      <c r="B68" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>221</v>
-      </c>
-      <c r="B69" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" t="s">
-        <v>222</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>224</v>
-      </c>
-      <c r="B70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" t="s">
-        <v>225</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>226</v>
+      <c r="E70" t="s">
+        <v>355</v>
       </c>
       <c r="F70" t="s">
-        <v>230</v>
+        <v>356</v>
+      </c>
+      <c r="H70" t="s">
+        <v>449</v>
+      </c>
+      <c r="I70" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
